--- a/data/MetalliCan/cleaned_data/material_df_sd.xlsx
+++ b/data/MetalliCan/cleaned_data/material_df_sd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="120">
   <si>
     <t>technosphere_id</t>
   </si>
@@ -358,6 +358,9 @@
     <t>L×density→t</t>
   </si>
   <si>
+    <t>missing_density</t>
+  </si>
+  <si>
     <t>kg→t</t>
   </si>
   <si>
@@ -367,13 +370,7 @@
     <t>kl→L × density kg/L; density=0.88</t>
   </si>
   <si>
-    <t>l→L × density kg/L; density=1.51</t>
-  </si>
-  <si>
-    <t>l→L × density kg/L; density=1.84</t>
-  </si>
-  <si>
-    <t>kl→L × density kg/L; density=1.19</t>
+    <t>volume reported; no density mapping for this subflow</t>
   </si>
   <si>
     <t>kg/1000</t>
@@ -822,7 +819,7 @@
         <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -863,7 +860,7 @@
         <v>93</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -904,7 +901,7 @@
         <v>113</v>
       </c>
       <c r="N4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -938,17 +935,14 @@
       <c r="K5" t="s">
         <v>109</v>
       </c>
-      <c r="L5">
-        <v>40.12825</v>
-      </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -986,7 +980,7 @@
         <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1020,17 +1014,14 @@
       <c r="K7" t="s">
         <v>109</v>
       </c>
-      <c r="L7">
-        <v>0.1360864</v>
-      </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s">
         <v>118</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1068,7 +1059,7 @@
         <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1109,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1150,7 +1141,7 @@
         <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1191,7 +1182,7 @@
         <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1225,17 +1216,14 @@
       <c r="K12" t="s">
         <v>109</v>
       </c>
-      <c r="L12">
-        <v>68.068</v>
-      </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1273,7 +1261,7 @@
         <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1314,7 +1302,7 @@
         <v>113</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1355,7 +1343,7 @@
         <v>93</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1396,7 +1384,7 @@
         <v>93</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1437,7 +1425,7 @@
         <v>93</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1478,7 +1466,7 @@
         <v>93</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -1516,10 +1504,10 @@
         <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1560,7 +1548,7 @@
         <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1601,7 +1589,7 @@
         <v>93</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1642,7 +1630,7 @@
         <v>93</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1683,7 +1671,7 @@
         <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -1724,7 +1712,7 @@
         <v>93</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -1758,17 +1746,14 @@
       <c r="K25" t="s">
         <v>109</v>
       </c>
-      <c r="L25">
-        <v>2.68345</v>
-      </c>
       <c r="M25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1806,7 +1791,7 @@
         <v>93</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -1847,7 +1832,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -1881,17 +1866,14 @@
       <c r="K28" t="s">
         <v>109</v>
       </c>
-      <c r="L28">
-        <v>0.26425</v>
-      </c>
       <c r="M28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1929,7 +1911,7 @@
         <v>93</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -1963,17 +1945,14 @@
       <c r="K30" t="s">
         <v>109</v>
       </c>
-      <c r="L30">
-        <v>0.009200000000000002</v>
-      </c>
       <c r="M30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N30" t="s">
         <v>118</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2011,7 +1990,7 @@
         <v>93</v>
       </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2052,7 +2031,7 @@
         <v>93</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -2093,7 +2072,7 @@
         <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -2131,10 +2110,10 @@
         <v>231.23982</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2175,7 +2154,7 @@
         <v>93</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2216,7 +2195,7 @@
         <v>93</v>
       </c>
       <c r="N36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2257,7 +2236,7 @@
         <v>93</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -2298,7 +2277,7 @@
         <v>93</v>
       </c>
       <c r="N38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -2339,7 +2318,7 @@
         <v>93</v>
       </c>
       <c r="N39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -2380,7 +2359,7 @@
         <v>93</v>
       </c>
       <c r="N40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2421,7 +2400,7 @@
         <v>93</v>
       </c>
       <c r="N41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -2462,7 +2441,7 @@
         <v>93</v>
       </c>
       <c r="N42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -2503,7 +2482,7 @@
         <v>93</v>
       </c>
       <c r="N43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -2544,7 +2523,7 @@
         <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -2585,7 +2564,7 @@
         <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -2626,7 +2605,7 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -2667,7 +2646,7 @@
         <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -2708,7 +2687,7 @@
         <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -2749,7 +2728,7 @@
         <v>93</v>
       </c>
       <c r="N49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -2790,7 +2769,7 @@
         <v>93</v>
       </c>
       <c r="N50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -2831,7 +2810,7 @@
         <v>93</v>
       </c>
       <c r="N51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>

--- a/data/MetalliCan/cleaned_data/material_df_sd.xlsx
+++ b/data/MetalliCan/cleaned_data/material_df_sd.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/MetalliCan/cleaned_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921EDA0E30D32332C4C3F95D42D246A8A70B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C458AAFE-87A9-4354-A01A-BBC03EF230CD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="36255" yWindow="3255" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$51</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -379,8 +388,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,13 +452,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -487,7 +504,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -521,6 +538,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -555,9 +573,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -730,14 +749,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -825,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -866,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -883,7 +922,7 @@
         <v>94</v>
       </c>
       <c r="F4">
-        <v>380.687</v>
+        <v>380.68700000000001</v>
       </c>
       <c r="H4" t="s">
         <v>97</v>
@@ -895,7 +934,7 @@
         <v>109</v>
       </c>
       <c r="L4">
-        <v>335.00456</v>
+        <v>335.00456000000003</v>
       </c>
       <c r="M4" t="s">
         <v>113</v>
@@ -907,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -945,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -986,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1003,7 +1042,7 @@
         <v>95</v>
       </c>
       <c r="F7">
-        <v>73.95999999999999</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="H7" t="s">
         <v>97</v>
@@ -1024,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1041,7 +1080,7 @@
         <v>93</v>
       </c>
       <c r="F8">
-        <v>241.250566996281</v>
+        <v>241.25056699628101</v>
       </c>
       <c r="H8" t="s">
         <v>97</v>
@@ -1053,7 +1092,7 @@
         <v>109</v>
       </c>
       <c r="L8">
-        <v>241.250566996281</v>
+        <v>241.25056699628101</v>
       </c>
       <c r="M8" t="s">
         <v>93</v>
@@ -1065,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1106,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1282,7 @@
         <v>93</v>
       </c>
       <c r="F13">
-        <v>924.081</v>
+        <v>924.08100000000002</v>
       </c>
       <c r="H13" t="s">
         <v>99</v>
@@ -1255,7 +1294,7 @@
         <v>109</v>
       </c>
       <c r="L13">
-        <v>924.081</v>
+        <v>924.08100000000002</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -1267,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1323,7 @@
         <v>94</v>
       </c>
       <c r="F14">
-        <v>336.521</v>
+        <v>336.52100000000002</v>
       </c>
       <c r="H14" t="s">
         <v>99</v>
@@ -1296,7 +1335,7 @@
         <v>109</v>
       </c>
       <c r="L14">
-        <v>296.13848</v>
+        <v>296.13848000000002</v>
       </c>
       <c r="M14" t="s">
         <v>113</v>
@@ -1308,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1364,7 @@
         <v>93</v>
       </c>
       <c r="F15">
-        <v>390.003</v>
+        <v>390.00299999999999</v>
       </c>
       <c r="H15" t="s">
         <v>99</v>
@@ -1337,7 +1376,7 @@
         <v>109</v>
       </c>
       <c r="L15">
-        <v>390.003</v>
+        <v>390.00299999999999</v>
       </c>
       <c r="M15" t="s">
         <v>93</v>
@@ -1349,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1390,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1554,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1595,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1735,7 +1774,7 @@
         <v>94</v>
       </c>
       <c r="F25">
-        <v>2.255</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="I25" t="s">
         <v>104</v>
@@ -1756,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +1812,7 @@
         <v>93</v>
       </c>
       <c r="F26">
-        <v>4346.921</v>
+        <v>4346.9210000000003</v>
       </c>
       <c r="I26" t="s">
         <v>104</v>
@@ -1785,7 +1824,7 @@
         <v>109</v>
       </c>
       <c r="L26">
-        <v>4346.921</v>
+        <v>4346.9210000000003</v>
       </c>
       <c r="M26" t="s">
         <v>93</v>
@@ -1797,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1814,7 +1853,7 @@
         <v>94</v>
       </c>
       <c r="F27">
-        <v>619.366</v>
+        <v>619.36599999999999</v>
       </c>
       <c r="I27" t="s">
         <v>104</v>
@@ -1826,7 +1865,7 @@
         <v>109</v>
       </c>
       <c r="L27">
-        <v>545.0420799999999</v>
+        <v>545.04207999999994</v>
       </c>
       <c r="M27" t="s">
         <v>113</v>
@@ -1838,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1876,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1932,7 @@
         <v>93</v>
       </c>
       <c r="F29">
-        <v>734.521</v>
+        <v>734.52099999999996</v>
       </c>
       <c r="I29" t="s">
         <v>104</v>
@@ -1905,7 +1944,7 @@
         <v>109</v>
       </c>
       <c r="L29">
-        <v>734.521</v>
+        <v>734.52099999999996</v>
       </c>
       <c r="M29" t="s">
         <v>93</v>
@@ -1917,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1955,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1972,7 +2011,7 @@
         <v>93</v>
       </c>
       <c r="F31">
-        <v>626.983579787717</v>
+        <v>626.98357978771696</v>
       </c>
       <c r="I31" t="s">
         <v>104</v>
@@ -1984,7 +2023,7 @@
         <v>109</v>
       </c>
       <c r="L31">
-        <v>626.983579787717</v>
+        <v>626.98357978771696</v>
       </c>
       <c r="M31" t="s">
         <v>93</v>
@@ -1996,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2037,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2078,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2107,7 +2146,7 @@
         <v>111</v>
       </c>
       <c r="L34">
-        <v>231.23982</v>
+        <v>231.23982000000001</v>
       </c>
       <c r="M34" t="s">
         <v>115</v>
@@ -2119,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2160,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2177,7 +2216,7 @@
         <v>93</v>
       </c>
       <c r="F36">
-        <v>2269.57</v>
+        <v>2269.5700000000002</v>
       </c>
       <c r="H36" t="s">
         <v>101</v>
@@ -2189,7 +2228,7 @@
         <v>111</v>
       </c>
       <c r="L36">
-        <v>2269.57</v>
+        <v>2269.5700000000002</v>
       </c>
       <c r="M36" t="s">
         <v>93</v>
@@ -2201,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2242,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2283,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2324,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2365,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2382,7 +2421,7 @@
         <v>93</v>
       </c>
       <c r="F41">
-        <v>86.59999999999999</v>
+        <v>86.6</v>
       </c>
       <c r="H41" t="s">
         <v>102</v>
@@ -2394,7 +2433,7 @@
         <v>112</v>
       </c>
       <c r="L41">
-        <v>86.59999999999999</v>
+        <v>86.6</v>
       </c>
       <c r="M41" t="s">
         <v>93</v>
@@ -2406,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2488,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2529,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2570,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2611,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2652,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2669,7 +2708,7 @@
         <v>93</v>
       </c>
       <c r="F48">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H48" t="s">
         <v>102</v>
@@ -2681,7 +2720,7 @@
         <v>112</v>
       </c>
       <c r="L48">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M48" t="s">
         <v>93</v>
@@ -2693,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -2734,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -2775,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2817,6 +2856,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>